--- a/inputs/xray-members.xlsx
+++ b/inputs/xray-members.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Discord Members" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Discord Members" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="292">
   <si>
     <t>DisplayName</t>
   </si>
@@ -73,6 +73,9 @@
     <t>#2PCJ8RVYG</t>
   </si>
   <si>
+    <t>Mem</t>
+  </si>
+  <si>
     <t>Sugma</t>
   </si>
   <si>
@@ -97,21 +100,6 @@
     <t>#CQGRV8L0</t>
   </si>
   <si>
-    <t>Mem</t>
-  </si>
-  <si>
-    <t>ChrisThe7th</t>
-  </si>
-  <si>
-    <t>tsabakalos</t>
-  </si>
-  <si>
-    <t>701851440619978874</t>
-  </si>
-  <si>
-    <t>#YR9YQP02C</t>
-  </si>
-  <si>
     <t>skyeshade | BST</t>
   </si>
   <si>
@@ -172,136 +160,148 @@
     <t>#Y9G2LGRVJ</t>
   </si>
   <si>
-    <t>NagaStoleMyBike | BST</t>
-  </si>
-  <si>
-    <t>napalm360</t>
-  </si>
-  <si>
-    <t>143002439514193920</t>
-  </si>
-  <si>
-    <t>NagaStoleMyBike</t>
-  </si>
-  <si>
-    <t>#9V2GRVGU</t>
-  </si>
-  <si>
-    <t>Purple Aki</t>
-  </si>
-  <si>
-    <t>#LGV0J9YPY</t>
+    <t>Bounce_04 | IST</t>
+  </si>
+  <si>
+    <t>bounce_04</t>
+  </si>
+  <si>
+    <t>473894487366828033</t>
+  </si>
+  <si>
+    <t>Bounce Jr</t>
+  </si>
+  <si>
+    <t>#9U02RUVYQ</t>
+  </si>
+  <si>
+    <t>Bounce_04</t>
+  </si>
+  <si>
+    <t>#8R8UL9RY0</t>
+  </si>
+  <si>
+    <t>pg | CST</t>
+  </si>
+  <si>
+    <t>tacobandito</t>
+  </si>
+  <si>
+    <t>207594024389967875</t>
   </si>
   <si>
     <t>pg</t>
   </si>
   <si>
-    <t>tacobandito</t>
-  </si>
-  <si>
-    <t>207594024389967875</t>
-  </si>
-  <si>
     <t>#Q92UQQJCR</t>
   </si>
   <si>
+    <t>Satan | EST</t>
+  </si>
+  <si>
+    <t>jmac4173</t>
+  </si>
+  <si>
+    <t>395604181731246090</t>
+  </si>
+  <si>
+    <t>Satan</t>
+  </si>
+  <si>
+    <t>#YJU92GY</t>
+  </si>
+  <si>
+    <t>BumblinMumbler | EST</t>
+  </si>
+  <si>
+    <t>bumblinmumbler</t>
+  </si>
+  <si>
+    <t>145231107112042496</t>
+  </si>
+  <si>
+    <t>BumblinMumbler2</t>
+  </si>
+  <si>
+    <t>#YPQ2UJUQR</t>
+  </si>
+  <si>
+    <t>BumblinMumbler</t>
+  </si>
+  <si>
+    <t>#JCCLVR8R</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>BumblinMumbler3</t>
+  </si>
+  <si>
+    <t>#G9UVRJ0RR</t>
+  </si>
+  <si>
+    <t>Erdnussflip</t>
+  </si>
+  <si>
+    <t>flippi7125</t>
+  </si>
+  <si>
+    <t>745611083602985032</t>
+  </si>
+  <si>
+    <t>ERDNUSSFLIP</t>
+  </si>
+  <si>
+    <t>#99Q0R0YQ9</t>
+  </si>
+  <si>
+    <t>Dr. Stone</t>
+  </si>
+  <si>
+    <t>dr.stone0476</t>
+  </si>
+  <si>
+    <t>1431507828652245013</t>
+  </si>
+  <si>
+    <t>#LQ2P0CQGU</t>
+  </si>
+  <si>
+    <t>〖ᴳᵒᵈ〗sᴜ͢ᴋᴜɴᴀ亗</t>
+  </si>
+  <si>
+    <t>#GR290LPG8</t>
+  </si>
+  <si>
+    <t>ViperX56</t>
+  </si>
+  <si>
+    <t>viperx56</t>
+  </si>
+  <si>
+    <t>321138998414409729</t>
+  </si>
+  <si>
+    <t>#U2LJ0QVP</t>
+  </si>
+  <si>
     <t>Eld</t>
   </si>
   <si>
-    <t>Satan</t>
-  </si>
-  <si>
-    <t>jmac4173</t>
-  </si>
-  <si>
-    <t>395604181731246090</t>
-  </si>
-  <si>
-    <t>#YJU92GY</t>
-  </si>
-  <si>
-    <t>BumblinMumbler | EST</t>
-  </si>
-  <si>
-    <t>bumblinmumbler</t>
-  </si>
-  <si>
-    <t>145231107112042496</t>
-  </si>
-  <si>
-    <t>BumblinMumbler2</t>
-  </si>
-  <si>
-    <t>#YPQ2UJUQR</t>
-  </si>
-  <si>
-    <t>BumblinMumbler</t>
-  </si>
-  <si>
-    <t>#JCCLVR8R</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>BumblinMumbler3</t>
-  </si>
-  <si>
-    <t>#G9UVRJ0RR</t>
-  </si>
-  <si>
-    <t>Erdnussflip</t>
-  </si>
-  <si>
-    <t>flippi7125</t>
-  </si>
-  <si>
-    <t>745611083602985032</t>
-  </si>
-  <si>
-    <t>ERDNUSSFLIP</t>
-  </si>
-  <si>
-    <t>#99Q0R0YQ9</t>
-  </si>
-  <si>
-    <t>Dr. Stone</t>
-  </si>
-  <si>
-    <t>dr.stone0476</t>
-  </si>
-  <si>
-    <t>1431507828652245013</t>
-  </si>
-  <si>
-    <t>#LQ2P0CQGU</t>
-  </si>
-  <si>
-    <t>Apollo | AWST</t>
-  </si>
-  <si>
-    <t>apollo2093</t>
-  </si>
-  <si>
-    <t>253429668118659072</t>
-  </si>
-  <si>
-    <t>Apollo</t>
-  </si>
-  <si>
-    <t>#9GGGQP0V</t>
-  </si>
-  <si>
-    <t>ViperX56</t>
-  </si>
-  <si>
-    <t>viperx56</t>
-  </si>
-  <si>
-    <t>321138998414409729</t>
-  </si>
-  <si>
-    <t>#U2LJ0QVP</t>
+    <t>ryan_L</t>
+  </si>
+  <si>
+    <t>reee5669</t>
+  </si>
+  <si>
+    <t>266127894319857664</t>
+  </si>
+  <si>
+    <t>#UYV2L8GU</t>
   </si>
   <si>
     <t>osiris8282 | BST</t>
@@ -448,7 +448,7 @@
     <t>#QPVGQ0C9</t>
   </si>
   <si>
-    <t>BB Crazy |</t>
+    <t>BB Crazy | EST</t>
   </si>
   <si>
     <t>swagman8008</t>
@@ -475,18 +475,6 @@
     <t>#8L9QLJJP</t>
   </si>
   <si>
-    <t>slothnz</t>
-  </si>
-  <si>
-    <t>_._sloth_._</t>
-  </si>
-  <si>
-    <t>770872071416053760</t>
-  </si>
-  <si>
-    <t>#G80JGVGQY</t>
-  </si>
-  <si>
     <t>david</t>
   </si>
   <si>
@@ -604,13 +592,79 @@
     <t>#L822V0G9L</t>
   </si>
   <si>
+    <t>Rious</t>
+  </si>
+  <si>
+    <t>riousb</t>
+  </si>
+  <si>
+    <t>141984404099563520</t>
+  </si>
+  <si>
+    <t>#VPYVYCYU</t>
+  </si>
+  <si>
+    <t>Ascended | IST</t>
+  </si>
+  <si>
+    <t>uppercasename</t>
+  </si>
+  <si>
+    <t>604629620138049549</t>
+  </si>
+  <si>
+    <t>Ascended</t>
+  </si>
+  <si>
+    <t>#QQPRJQ2PQ</t>
+  </si>
+  <si>
+    <t>AverageDonor</t>
+  </si>
+  <si>
+    <t>#GQJLYVYGY</t>
+  </si>
+  <si>
+    <t>Paladin</t>
+  </si>
+  <si>
+    <t>#GRJUP0VJQ</t>
+  </si>
+  <si>
+    <t>Vojt | CET</t>
+  </si>
+  <si>
+    <t>therealvo1t</t>
+  </si>
+  <si>
+    <t>939805041882181632</t>
+  </si>
+  <si>
+    <t>Vojt</t>
+  </si>
+  <si>
+    <t>#PCJP8QJC</t>
+  </si>
+  <si>
+    <t>your mama</t>
+  </si>
+  <si>
+    <t>titanlim</t>
+  </si>
+  <si>
+    <t>559669183101665319</t>
+  </si>
+  <si>
+    <t>#2Y88YLL99</t>
+  </si>
+  <si>
     <t>CrazyWaveIT | EST</t>
   </si>
   <si>
-    <t>terntenodo</t>
-  </si>
-  <si>
-    <t>485310245929877534</t>
+    <t>crazywaveit</t>
+  </si>
+  <si>
+    <t>642147006776868920</t>
   </si>
   <si>
     <t>CrazyWaveIT</t>
@@ -619,72 +673,6 @@
     <t>#YLUL9Q9JG</t>
   </si>
   <si>
-    <t>Rious</t>
-  </si>
-  <si>
-    <t>riousb</t>
-  </si>
-  <si>
-    <t>141984404099563520</t>
-  </si>
-  <si>
-    <t>#VPYVYCYU</t>
-  </si>
-  <si>
-    <t>Ascended | IST</t>
-  </si>
-  <si>
-    <t>uppercasename</t>
-  </si>
-  <si>
-    <t>604629620138049549</t>
-  </si>
-  <si>
-    <t>Ascended</t>
-  </si>
-  <si>
-    <t>#QQPRJQ2PQ</t>
-  </si>
-  <si>
-    <t>AverageDonor</t>
-  </si>
-  <si>
-    <t>#GQJLYVYGY</t>
-  </si>
-  <si>
-    <t>Paladin</t>
-  </si>
-  <si>
-    <t>#GRJUP0VJQ</t>
-  </si>
-  <si>
-    <t>Vojt | CET</t>
-  </si>
-  <si>
-    <t>therealvo1t</t>
-  </si>
-  <si>
-    <t>939805041882181632</t>
-  </si>
-  <si>
-    <t>Vojt</t>
-  </si>
-  <si>
-    <t>#PCJP8QJC</t>
-  </si>
-  <si>
-    <t>your mama</t>
-  </si>
-  <si>
-    <t>titanlim</t>
-  </si>
-  <si>
-    <t>559669183101665319</t>
-  </si>
-  <si>
-    <t>#2Y88YLL99</t>
-  </si>
-  <si>
     <t>Motz</t>
   </si>
   <si>
@@ -790,9 +778,6 @@
     <t>#P2UPPVYL</t>
   </si>
   <si>
-    <t>Lead</t>
-  </si>
-  <si>
     <t>Sned 2.0</t>
   </si>
   <si>
@@ -862,28 +847,46 @@
     <t>#29Q8CR280</t>
   </si>
   <si>
-    <t>Kurane</t>
-  </si>
-  <si>
-    <t>paperkurane</t>
-  </si>
-  <si>
-    <t>265092463671115778</t>
-  </si>
-  <si>
-    <t>#Q0R8YPGVP</t>
-  </si>
-  <si>
-    <t>RipexFruit</t>
-  </si>
-  <si>
-    <t>irockudigme</t>
-  </si>
-  <si>
-    <t>1198432518416891936</t>
-  </si>
-  <si>
-    <t>#QRLVLRLQC</t>
+    <t>iamgroot</t>
+  </si>
+  <si>
+    <t>akshayanand8122</t>
+  </si>
+  <si>
+    <t>536559865108365314</t>
+  </si>
+  <si>
+    <t>ÍâmGrøØt</t>
+  </si>
+  <si>
+    <t>#2U89QL90Y</t>
+  </si>
+  <si>
+    <t>Koshal</t>
+  </si>
+  <si>
+    <t>cyclone9874</t>
+  </si>
+  <si>
+    <t>1204086479446482975</t>
+  </si>
+  <si>
+    <t>koshal</t>
+  </si>
+  <si>
+    <t>#YRVCR0U9P</t>
+  </si>
+  <si>
+    <t>S4VAGE_B5</t>
+  </si>
+  <si>
+    <t>redshift.base.eth</t>
+  </si>
+  <si>
+    <t>1282120797095329885</t>
+  </si>
+  <si>
+    <t>#GL02Q800</t>
   </si>
 </sst>
 </file>
@@ -965,6 +968,10 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1263,9 +1270,15 @@
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1284,10 +1297,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>14</v>
@@ -1313,10 +1326,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
@@ -1333,19 +1346,19 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
@@ -1357,7 +1370,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1377,10 +1390,10 @@
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>14</v>
@@ -1392,7 +1405,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1403,16 +1416,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>37</v>
@@ -1427,7 +1440,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1438,32 +1451,26 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1473,26 +1480,32 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1502,32 +1515,26 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1537,19 +1544,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>14</v>
@@ -1566,19 +1573,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
@@ -1595,20 +1602,20 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1619,7 +1626,7 @@
         <v>16</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1630,26 +1637,32 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1659,19 +1672,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>14</v>
@@ -1683,7 +1696,7 @@
         <v>16</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1694,32 +1707,26 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1729,26 +1736,32 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1758,32 +1771,26 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1793,26 +1800,32 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1822,19 +1835,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>14</v>
@@ -1846,7 +1859,7 @@
         <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1857,16 +1870,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>87</v>
@@ -1874,15 +1887,9 @@
       <c r="F22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1901,22 +1908,22 @@
         <v>90</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1951,7 +1958,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1986,7 +1993,7 @@
         <v>16</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2021,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2056,7 +2063,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2091,7 +2098,7 @@
         <v>16</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -2126,7 +2133,7 @@
         <v>16</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -2161,7 +2168,7 @@
         <v>16</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2196,7 +2203,7 @@
         <v>16</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -2260,7 +2267,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -2295,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -2330,7 +2337,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2423,7 +2430,7 @@
         <v>16</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2458,7 +2465,7 @@
         <v>16</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2493,7 +2500,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2528,7 +2535,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2563,7 +2570,7 @@
         <v>16</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -2583,23 +2590,17 @@
         <v>168</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2609,19 +2610,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>14</v>
@@ -2638,19 +2639,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>14</v>
@@ -2667,26 +2668,32 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -2696,32 +2703,26 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -2731,19 +2732,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>14</v>
@@ -2760,19 +2761,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>14</v>
@@ -2789,19 +2790,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>14</v>
@@ -2818,19 +2819,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>14</v>
@@ -2847,19 +2848,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>14</v>
@@ -2876,19 +2877,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>14</v>
@@ -2905,19 +2906,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>14</v>
@@ -2934,16 +2935,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>196</v>
@@ -2951,9 +2952,15 @@
       <c r="F55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -2978,7 +2985,7 @@
         <v>201</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>15</v>
@@ -2998,32 +3005,26 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3033,32 +3034,26 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3077,17 +3072,23 @@
         <v>208</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="G59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3097,16 +3098,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>214</v>
@@ -3114,9 +3115,15 @@
       <c r="F60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3150,7 +3157,7 @@
         <v>16</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -3185,7 +3192,7 @@
         <v>16</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -3220,7 +3227,7 @@
         <v>16</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -3255,7 +3262,7 @@
         <v>16</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -3290,7 +3297,7 @@
         <v>16</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -3325,7 +3332,7 @@
         <v>16</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -3360,7 +3367,7 @@
         <v>16</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -3395,7 +3402,7 @@
         <v>16</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -3406,32 +3413,26 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>248</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -3441,26 +3442,32 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -3470,32 +3477,26 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>259</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -3505,19 +3506,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>14</v>
@@ -3534,19 +3535,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>14</v>
@@ -3563,13 +3564,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>264</v>
@@ -3580,9 +3581,15 @@
       <c r="F74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+      <c r="G74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -3601,11 +3608,11 @@
         <v>268</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>14</v>
       </c>
@@ -3616,7 +3623,7 @@
         <v>16</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -3627,16 +3634,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>274</v>
@@ -3651,7 +3658,7 @@
         <v>16</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -3665,17 +3672,17 @@
         <v>275</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>14</v>
       </c>
@@ -3686,7 +3693,7 @@
         <v>16</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -3697,16 +3704,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>282</v>
@@ -3721,7 +3728,7 @@
         <v>16</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -3741,10 +3748,10 @@
         <v>285</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
@@ -3756,7 +3763,7 @@
         <v>16</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -3767,19 +3774,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
@@ -3791,7 +3798,7 @@
         <v>16</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
